--- a/static/gatheringTemplate.xlsx
+++ b/static/gatheringTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="532"/>
+    <workbookView windowWidth="20400" windowHeight="7785" tabRatio="532"/>
   </bookViews>
   <sheets>
     <sheet name="收款信息表" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>公司名称</t>
   </si>
@@ -236,12 +236,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,83 +262,93 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,58 +362,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -421,181 +426,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,51 +611,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -672,16 +632,48 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -696,13 +688,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,10 +717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,133 +729,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1218,8 +1223,8 @@
   <sheetPr/>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1313,11 +1318,14 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2:B1048576">
-      <formula1>"SEM,公司,商务本身"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2:C1048576">
       <formula1>"调研,回访,装修,保险,教育,增值,邀约,通知,催收,贷款,房产,机器人催收,酒水,POS机,AI股票,股票,代理记账,财税,信用卡,知识产权,物流,营销类"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A2:A1048576" errorStyle="warning">
+      <formula1>COUNTIF($A:$A,A2)&lt;2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1 T2:T1048576">
+      <formula1>"直客,渠道"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L2:L1048576">
       <formula1>"对公,对私"</formula1>
@@ -1328,11 +1336,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R2:R1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1 T2:T1048576">
-      <formula1>"直客,渠道"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A2:A1048576" errorStyle="warning">
-      <formula1>COUNTIF($A:$A,A2)&lt;2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
+      <formula1>"SEM,公司,商务"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
       <formula1>"月付,季付,年付,测试月付,测试季付"</formula1>
